--- a/AS1_mall.xlsx
+++ b/AS1_mall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinMizgalski\Documents\GitHub\NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74812C66-DE21-45FF-AA96-272A84D995E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8A271-1064-4C46-B78B-2B2B0803D84C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fidelix" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="375">
   <si>
     <t>Bet</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Projektnamn:</t>
   </si>
   <si>
-    <t>Kv.Visionen 3 Jönköping</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -333,24 +330,15 @@
     <t>Projektnr:</t>
   </si>
   <si>
-    <t>50114</t>
-  </si>
-  <si>
     <t>Generering</t>
   </si>
   <si>
     <t>Uppdaterad:</t>
   </si>
   <si>
-    <t>19-01-02/MMI</t>
-  </si>
-  <si>
     <t>Reservplats</t>
   </si>
   <si>
-    <t>50-03-01-AS1</t>
-  </si>
-  <si>
     <t>Fidelix</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>Reserv</t>
   </si>
   <si>
-    <t>TK1</t>
-  </si>
-  <si>
     <t>Tidkanal</t>
   </si>
   <si>
@@ -444,9 +429,6 @@
     <t>Returledningstemperatur</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>Tilluftsfläkt</t>
   </si>
   <si>
@@ -465,15 +447,9 @@
     <t>Uteluftsspjäll</t>
   </si>
   <si>
-    <t>SV1</t>
-  </si>
-  <si>
     <t>Tilluftstemperatur</t>
   </si>
   <si>
-    <t>TG-KH3/PT1000</t>
-  </si>
-  <si>
     <t>Frysskyddstemperatur</t>
   </si>
   <si>
@@ -1218,61 +1194,22 @@
     <t>Fabrikat/Typ</t>
   </si>
   <si>
-    <t>GT1</t>
-  </si>
-  <si>
     <t>BEMSLA</t>
   </si>
   <si>
-    <t>TF1</t>
-  </si>
-  <si>
-    <t>VLT106</t>
-  </si>
-  <si>
     <t>Spänning ström</t>
   </si>
   <si>
-    <t>400V 8,3A</t>
-  </si>
-  <si>
-    <t>Driftorder,Driftsvar,Styrsignal</t>
-  </si>
-  <si>
-    <t>MAGNA3</t>
-  </si>
-  <si>
-    <t>230V 1,2A</t>
-  </si>
-  <si>
-    <t>Driftorder,Driftsvar</t>
-  </si>
-  <si>
-    <t>57-01-01</t>
-  </si>
-  <si>
-    <t>50-01-01</t>
-  </si>
-  <si>
-    <t>RVAZ4L1-24A,Adapter OVA-L1</t>
-  </si>
-  <si>
-    <t>Oljeavskiljare</t>
-  </si>
-  <si>
-    <t>OA1</t>
-  </si>
-  <si>
-    <t>Utebelysning</t>
-  </si>
-  <si>
-    <t>NOVOSYSTEMS ordernr  50114.1</t>
-  </si>
-  <si>
     <t>Datum: xxxx-xx-xx</t>
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Novosystems</t>
+  </si>
+  <si>
+    <t>AS1</t>
   </si>
 </sst>
 </file>
@@ -2085,32 +2022,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2161,6 +2072,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4399,7 +4336,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4425,14 +4362,12 @@
       <c r="B1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="114" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="114" t="s">
-        <v>80</v>
       </c>
       <c r="F1" s="114"/>
       <c r="G1" s="114"/>
@@ -4442,16 +4377,14 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F2" s="114"/>
       <c r="G2" s="114"/>
@@ -4461,11 +4394,9 @@
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="9"/>
       <c r="H3" s="102"/>
@@ -4478,7 +4409,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="104">
         <v>0.25</v>
@@ -4493,26 +4424,24 @@
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>393</v>
+        <v>374</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>"NOVOSYSTEMS ordernr "&amp;C2&amp;".1"</f>
+        <v>NOVOSYSTEMS ordernr .1</v>
       </c>
       <c r="H5" s="103"/>
       <c r="I5" s="73">
         <f>SUM(I7:I160)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="73">
         <f t="shared" ref="J5:Q5" si="0">SUM(J7:J160)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="73">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="73">
         <f t="shared" si="0"/>
@@ -4524,7 +4453,7 @@
       </c>
       <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="73">
         <f t="shared" si="0"/>
@@ -4547,52 +4476,50 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="L6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="M6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="129" t="s">
-        <v>387</v>
-      </c>
+      <c r="B7" s="129"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -4611,28 +4538,18 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>128</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B8" s="127"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="100"/>
       <c r="I8" s="75"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
+      <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -4641,65 +4558,27 @@
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>383</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="100"/>
-      <c r="I9" s="75">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="10">
-        <v>1</v>
-      </c>
+      <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>384</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>385</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>386</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="100"/>
-      <c r="I10" s="75">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
+      <c r="I10" s="75"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -4707,18 +4586,8 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>389</v>
-      </c>
+      <c r="B11" s="11"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
       <c r="H11" s="100"/>
@@ -4727,9 +4596,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
+      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4759,9 +4626,7 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="129" t="s">
-        <v>388</v>
-      </c>
+      <c r="B14" s="129"/>
       <c r="E14" s="99"/>
       <c r="H14" s="100"/>
       <c r="I14" s="75"/>
@@ -4773,19 +4638,10 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="99" t="s">
-        <v>390</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="E15" s="99"/>
       <c r="H15" s="100"/>
-      <c r="I15" s="75">
-        <v>1</v>
-      </c>
+      <c r="I15" s="75"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -4794,20 +4650,11 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>392</v>
-      </c>
+      <c r="B16" s="11"/>
+      <c r="E16" s="99"/>
       <c r="H16" s="100"/>
       <c r="I16" s="75"/>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -14796,7 +14643,7 @@
   </sheetPr>
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -14814,7 +14661,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -14840,56 +14687,56 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -14922,7 +14769,7 @@
       <c r="A7" s="94"/>
       <c r="B7" s="94"/>
       <c r="C7" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -16399,17 +16246,17 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="160" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="160" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="150" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="147" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="137" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="11" customWidth="1"/>
@@ -16419,13 +16266,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="149"/>
+      <c r="A1" s="138" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="139"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="144"/>
+      <c r="E1" s="134"/>
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
@@ -16433,11 +16280,11 @@
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="145"/>
+      <c r="E2" s="135"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -16445,54 +16292,54 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151" t="s">
-        <v>141</v>
+      <c r="A3" s="141" t="s">
+        <v>133</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="153"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -16503,8 +16350,8 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="155"/>
-      <c r="B6" s="154"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -16515,8 +16362,8 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="153"/>
-      <c r="B7" s="154"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -16527,8 +16374,8 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="154"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="17"/>
@@ -16539,8 +16386,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -16551,8 +16398,8 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -16563,8 +16410,8 @@
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -16575,11 +16422,11 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="159"/>
-      <c r="B12" s="159"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="146"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -16587,11 +16434,11 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="146"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -16599,11 +16446,11 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
-      <c r="B14" s="159"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="146"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -16611,11 +16458,11 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="146"/>
+      <c r="E15" s="136"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -16623,11 +16470,11 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="146"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -16635,11 +16482,11 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="146"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -16647,11 +16494,11 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="146"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -16659,11 +16506,11 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
-      <c r="B19" s="159"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="146"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -16671,11 +16518,11 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="159"/>
-      <c r="B20" s="159"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="149"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="146"/>
+      <c r="E20" s="136"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -16683,11 +16530,11 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
-      <c r="B21" s="159"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="146"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -16695,11 +16542,11 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="159"/>
-      <c r="B22" s="159"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="146"/>
+      <c r="E22" s="136"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -16707,11 +16554,11 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
-      <c r="B23" s="159"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="146"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -16719,11 +16566,11 @@
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="159"/>
-      <c r="B24" s="159"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="146"/>
+      <c r="E24" s="136"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -16731,11 +16578,11 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="159"/>
-      <c r="B25" s="159"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="146"/>
+      <c r="E25" s="136"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -16743,11 +16590,11 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
-      <c r="B26" s="159"/>
+      <c r="A26" s="149"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="146"/>
+      <c r="E26" s="136"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -16755,11 +16602,11 @@
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="159"/>
-      <c r="B27" s="159"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="146"/>
+      <c r="E27" s="136"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -16767,11 +16614,11 @@
       <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
-      <c r="B28" s="159"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="146"/>
+      <c r="E28" s="136"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -16779,11 +16626,11 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="159"/>
-      <c r="B29" s="159"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="146"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -16937,7 +16784,7 @@
   <dimension ref="A2:S127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16950,24 +16797,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
+      <c r="A2" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="114"/>
       <c r="B4" s="114" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C4" s="114"/>
       <c r="D4" s="114"/>
@@ -16982,7 +16829,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="114"/>
       <c r="B6" s="114" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
@@ -16996,34 +16843,34 @@
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="114" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="114" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="114" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="96" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
+      <c r="A11" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
     </row>
     <row r="12" spans="1:11" s="96" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="115"/>
@@ -17041,16 +16888,18 @@
     <row r="13" spans="1:11" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="115"/>
       <c r="B13" s="25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>373</v>
+      </c>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J13" s="115"/>
       <c r="K13" s="22"/>
@@ -17071,7 +16920,7 @@
     <row r="15" spans="1:11" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115"/>
       <c r="B15" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="22"/>
@@ -17080,7 +16929,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="22"/>
@@ -17101,7 +16950,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="114"/>
       <c r="B17" s="114" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="5"/>
@@ -17123,18 +16972,18 @@
     </row>
     <row r="19" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="114"/>
-      <c r="B19" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
+      <c r="B19" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
       <c r="L19" s="114"/>
       <c r="M19" s="114"/>
       <c r="N19" s="114"/>
@@ -17147,7 +16996,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="114"/>
       <c r="B21" s="114" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C21" s="114"/>
       <c r="D21" s="114"/>
@@ -17190,68 +17039,68 @@
     </row>
     <row r="23" spans="1:19" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="159" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="Q23" s="93" t="s">
         <v>176</v>
-      </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="N23" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="O23" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="P23" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q23" s="93" t="s">
-        <v>184</v>
       </c>
       <c r="R23" s="114"/>
       <c r="S23" s="114"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="134" t="s">
+      <c r="B24" s="152"/>
+      <c r="C24" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="151" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="136" t="s">
-        <v>190</v>
+      <c r="I24" s="153" t="s">
+        <v>182</v>
       </c>
       <c r="J24" s="29">
         <v>6</v>
@@ -17272,72 +17121,72 @@
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
       <c r="J25" s="34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R25" s="36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="S25" s="114"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="39" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H26" s="40">
         <v>1</v>
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K26" s="42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="42"/>
@@ -17350,7 +17199,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
@@ -17373,7 +17222,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="107"/>
@@ -17396,7 +17245,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B29" s="105"/>
       <c r="C29" s="107"/>
@@ -17419,7 +17268,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B30" s="105"/>
       <c r="C30" s="107"/>
@@ -17442,7 +17291,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="107"/>
@@ -17465,7 +17314,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="107"/>
@@ -17488,7 +17337,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B33" s="105"/>
       <c r="C33" s="107"/>
@@ -17511,7 +17360,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B34" s="105"/>
       <c r="C34" s="107"/>
@@ -17534,7 +17383,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B35" s="105"/>
       <c r="C35" s="107"/>
@@ -17557,7 +17406,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B36" s="105"/>
       <c r="C36" s="107"/>
@@ -17580,7 +17429,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B37" s="105"/>
       <c r="C37" s="107"/>
@@ -17603,7 +17452,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B38" s="105"/>
       <c r="C38" s="107"/>
@@ -17626,7 +17475,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="107"/>
@@ -17649,7 +17498,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B40" s="105"/>
       <c r="C40" s="107"/>
@@ -17672,7 +17521,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B41" s="105"/>
       <c r="C41" s="107"/>
@@ -17695,7 +17544,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="47" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B42" s="105"/>
       <c r="C42" s="107"/>
@@ -17718,7 +17567,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B43" s="105"/>
       <c r="C43" s="107"/>
@@ -17741,7 +17590,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="107"/>
@@ -17764,7 +17613,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B45" s="105"/>
       <c r="C45" s="107"/>
@@ -17787,7 +17636,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="47" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="107"/>
@@ -17810,7 +17659,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B47" s="105"/>
       <c r="C47" s="107"/>
@@ -17833,7 +17682,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="47" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B48" s="105"/>
       <c r="C48" s="107"/>
@@ -17856,7 +17705,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="47" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B49" s="105"/>
       <c r="C49" s="107"/>
@@ -17879,7 +17728,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="47" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B50" s="105"/>
       <c r="C50" s="107"/>
@@ -17902,7 +17751,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B51" s="105"/>
       <c r="C51" s="107"/>
@@ -17925,7 +17774,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B52" s="105"/>
       <c r="C52" s="107"/>
@@ -17948,7 +17797,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B53" s="105"/>
       <c r="C53" s="107"/>
@@ -17971,7 +17820,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B54" s="112"/>
       <c r="C54" s="107"/>
@@ -17994,7 +17843,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="107"/>
@@ -18017,7 +17866,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="47" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B56" s="112"/>
       <c r="C56" s="107"/>
@@ -18040,7 +17889,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="47" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B57" s="112"/>
       <c r="C57" s="107"/>
@@ -18063,7 +17912,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B58" s="112"/>
       <c r="C58" s="107"/>
@@ -18086,7 +17935,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B59" s="112"/>
       <c r="C59" s="107"/>
@@ -18109,7 +17958,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B60" s="112"/>
       <c r="C60" s="107"/>
@@ -18132,7 +17981,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B61" s="112"/>
       <c r="C61" s="107"/>
@@ -18155,7 +18004,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B62" s="112"/>
       <c r="C62" s="107"/>
@@ -18178,7 +18027,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="47" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B63" s="112"/>
       <c r="C63" s="107"/>
@@ -18201,7 +18050,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B64" s="112"/>
       <c r="C64" s="107"/>
@@ -18224,7 +18073,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B65" s="112"/>
       <c r="C65" s="107"/>
@@ -18247,7 +18096,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B66" s="112"/>
       <c r="C66" s="107"/>
@@ -18270,7 +18119,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B67" s="112"/>
       <c r="C67" s="107"/>
@@ -18293,7 +18142,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="47" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B68" s="112"/>
       <c r="C68" s="107"/>
@@ -18316,7 +18165,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="47" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B69" s="112"/>
       <c r="C69" s="107"/>
@@ -18339,7 +18188,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="47" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B70" s="112"/>
       <c r="C70" s="107"/>
@@ -18362,7 +18211,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="47" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B71" s="112"/>
       <c r="C71" s="107"/>
@@ -18385,7 +18234,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="47" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B72" s="105"/>
       <c r="C72" s="107"/>
@@ -18408,7 +18257,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="47" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B73" s="105"/>
       <c r="C73" s="107"/>
@@ -18431,7 +18280,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="47" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B74" s="105"/>
       <c r="C74" s="107"/>
@@ -18454,7 +18303,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="47" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B75" s="105"/>
       <c r="C75" s="107"/>
@@ -18477,7 +18326,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B76" s="105"/>
       <c r="C76" s="107"/>
@@ -18500,7 +18349,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B77" s="105"/>
       <c r="C77" s="107"/>
@@ -18523,7 +18372,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="47" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B78" s="105"/>
       <c r="C78" s="107"/>
@@ -18546,7 +18395,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B79" s="105"/>
       <c r="C79" s="107"/>
@@ -18569,7 +18418,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B80" s="105"/>
       <c r="C80" s="107"/>
@@ -18592,7 +18441,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B81" s="105"/>
       <c r="C81" s="107"/>
@@ -18615,7 +18464,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="47" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B82" s="105"/>
       <c r="C82" s="107"/>
@@ -18638,7 +18487,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="47" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B83" s="105"/>
       <c r="C83" s="107"/>
@@ -18661,7 +18510,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="47" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B84" s="105"/>
       <c r="C84" s="107"/>
@@ -18684,7 +18533,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="47" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B85" s="105"/>
       <c r="C85" s="107"/>
@@ -18707,7 +18556,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="47" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B86" s="105"/>
       <c r="C86" s="107"/>
@@ -18730,7 +18579,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B87" s="105"/>
       <c r="C87" s="107"/>
@@ -18753,7 +18602,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="47" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B88" s="105"/>
       <c r="C88" s="107"/>
@@ -18776,7 +18625,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B89" s="105"/>
       <c r="C89" s="107"/>
@@ -18799,7 +18648,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="47" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B90" s="105"/>
       <c r="C90" s="107"/>
@@ -18822,7 +18671,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="47" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B91" s="105"/>
       <c r="C91" s="107"/>
@@ -18845,7 +18694,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="47" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B92" s="105"/>
       <c r="C92" s="107"/>
@@ -18868,7 +18717,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="47" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B93" s="105"/>
       <c r="C93" s="107"/>
@@ -18891,7 +18740,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B94" s="105"/>
       <c r="C94" s="107"/>
@@ -18914,7 +18763,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="47" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B95" s="105"/>
       <c r="C95" s="107"/>
@@ -18937,7 +18786,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="47" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B96" s="105"/>
       <c r="C96" s="107"/>
@@ -18960,7 +18809,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B97" s="105"/>
       <c r="C97" s="107"/>
@@ -18983,7 +18832,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="47" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B98" s="105"/>
       <c r="C98" s="107"/>
@@ -19006,7 +18855,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B99" s="105"/>
       <c r="C99" s="107"/>
@@ -19029,7 +18878,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="47" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B100" s="105"/>
       <c r="C100" s="107"/>
@@ -19052,7 +18901,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B101" s="105"/>
       <c r="C101" s="107"/>
@@ -19075,7 +18924,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="47" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B102" s="105"/>
       <c r="C102" s="107"/>
@@ -19098,7 +18947,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="47" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B103" s="105"/>
       <c r="C103" s="107"/>
@@ -19121,7 +18970,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="47" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B104" s="105"/>
       <c r="C104" s="107"/>
@@ -19144,7 +18993,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="47" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B105" s="105"/>
       <c r="C105" s="107"/>
@@ -19167,7 +19016,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B106" s="105"/>
       <c r="C106" s="107"/>
@@ -19190,7 +19039,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="47" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B107" s="105"/>
       <c r="C107" s="107"/>
@@ -19213,7 +19062,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="47" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B108" s="105"/>
       <c r="C108" s="107"/>
@@ -19236,7 +19085,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="47" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B109" s="105"/>
       <c r="C109" s="107"/>
@@ -19259,7 +19108,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="47" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B110" s="105"/>
       <c r="C110" s="107"/>
@@ -19282,7 +19131,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="47" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B111" s="105"/>
       <c r="C111" s="107"/>
@@ -19305,7 +19154,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="47" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B112" s="105"/>
       <c r="C112" s="107"/>
@@ -19328,7 +19177,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="47" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B113" s="105"/>
       <c r="C113" s="107"/>
@@ -19351,7 +19200,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B114" s="105"/>
       <c r="C114" s="107"/>
@@ -19374,7 +19223,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="47" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B115" s="105"/>
       <c r="C115" s="107"/>
@@ -19397,7 +19246,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="47" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B116" s="105"/>
       <c r="C116" s="107"/>
@@ -19420,7 +19269,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="47" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B117" s="105"/>
       <c r="C117" s="107"/>
@@ -19443,7 +19292,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B118" s="105"/>
       <c r="C118" s="107"/>
@@ -19466,7 +19315,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="47" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B119" s="105"/>
       <c r="C119" s="107"/>
@@ -19489,7 +19338,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="47" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B120" s="105"/>
       <c r="C120" s="107"/>
@@ -19512,7 +19361,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="47" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B121" s="105"/>
       <c r="C121" s="107"/>
@@ -19535,7 +19384,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="47" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B122" s="105"/>
       <c r="C122" s="107"/>
@@ -19558,7 +19407,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="47" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B123" s="105"/>
       <c r="C123" s="107"/>
@@ -19581,7 +19430,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="47" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B124" s="105"/>
       <c r="C124" s="107"/>
@@ -19604,7 +19453,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="47" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B125" s="105"/>
       <c r="C125" s="107"/>
@@ -19627,7 +19476,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="47" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B126" s="105"/>
       <c r="C126" s="107"/>
@@ -19650,7 +19499,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B127" s="105"/>
       <c r="C127" s="107"/>
@@ -19729,16 +19578,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E1" s="120" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="118" t="s">
@@ -19751,17 +19600,17 @@
         <v>1</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K1" s="114"/>
       <c r="L1" s="118" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="119" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -29082,7 +28931,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="130" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B1" s="130" t="s">
         <v>3</v>
@@ -34398,7 +34247,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C2" s="114"/>
       <c r="D2" s="114"/>
@@ -34418,42 +34267,42 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="114" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D4" s="114"/>
       <c r="E4" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F4" s="114" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G4" s="114" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H4" s="114"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="114"/>
       <c r="C5" s="114" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="114"/>
       <c r="F5" s="114" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G5" s="114" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="114"/>
       <c r="C6" s="114" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D6" s="114"/>
       <c r="E6" s="114"/>
@@ -34463,91 +34312,91 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G8" s="114"/>
       <c r="H8" s="114" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="114"/>
       <c r="C9" s="114" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D9" s="114"/>
       <c r="E9" s="114"/>
       <c r="F9" s="114" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G9" s="114"/>
       <c r="H9" s="114" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="114"/>
       <c r="C10" s="114" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D10" s="114"/>
       <c r="E10" s="114"/>
       <c r="F10" s="114" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H10" s="114"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="114" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F12" s="114" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G12" s="114" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H12" s="114"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="114"/>
       <c r="C13" s="114" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D13" s="114"/>
       <c r="E13" s="114"/>
       <c r="F13" s="114" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G13" s="114" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H13" s="114"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="114"/>
       <c r="C14" s="114" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D14" s="114"/>
       <c r="E14" s="114"/>
@@ -34557,27 +34406,27 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="114" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D16" s="114"/>
       <c r="E16" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F16" s="114" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G16" s="114"/>
       <c r="H16" s="114" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="114"/>
       <c r="C17" s="114" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D17" s="114"/>
       <c r="E17" s="114"/>
@@ -34587,7 +34436,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="114"/>
       <c r="C18" s="114" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D18" s="114"/>
       <c r="E18" s="114"/>
@@ -34596,72 +34445,72 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="114" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D20" s="114"/>
       <c r="E20" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F20" s="114" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G20" s="114" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="114"/>
       <c r="C21" s="114" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D21" s="114"/>
       <c r="E21" s="114"/>
       <c r="F21" s="114" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G21" s="114" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="114"/>
       <c r="C22" s="114" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D22" s="114"/>
       <c r="E22" s="114"/>
       <c r="F22" s="114" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="114" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D24" s="114"/>
       <c r="E24" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F24" s="114" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="114"/>
       <c r="C25" s="114" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D25" s="114"/>
       <c r="E25" s="114"/>
@@ -34671,7 +34520,7 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="114"/>
       <c r="C26" s="114" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D26" s="114"/>
       <c r="E26" s="114"/>
@@ -34680,40 +34529,40 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="114" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C28" s="114" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D28" s="114"/>
       <c r="E28" s="114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F28" s="114" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G28" s="114" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="114"/>
       <c r="C29" s="114" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D29" s="114"/>
       <c r="E29" s="114"/>
       <c r="F29" s="114" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G29" s="114" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="114"/>
       <c r="C30" s="114" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D30" s="114"/>
       <c r="E30" s="114"/>
@@ -34750,15 +34599,15 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B42" s="114"/>
       <c r="C42" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="114" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -34770,26 +34619,26 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B44" s="114"/>
       <c r="C44" s="9" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="114" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="114"/>
@@ -34798,11 +34647,11 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B46" s="114"/>
       <c r="C46" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="114"/>
@@ -34811,11 +34660,11 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B47" s="114"/>
       <c r="C47" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="114"/>
@@ -34824,11 +34673,11 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B48" s="114"/>
       <c r="C48" s="9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="114"/>
@@ -34837,11 +34686,11 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49" s="114"/>
       <c r="C49" s="9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D49" s="9"/>
       <c r="H49" s="9"/>
@@ -34849,11 +34698,11 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B50" s="114"/>
       <c r="C50" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D50" s="9"/>
       <c r="H50" s="9"/>
@@ -34861,11 +34710,11 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B51" s="114"/>
       <c r="C51" s="9" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D51" s="9"/>
       <c r="H51" s="9"/>
@@ -34873,11 +34722,11 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B52" s="114"/>
       <c r="C52" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D52" s="9"/>
       <c r="H52" s="9"/>
@@ -34885,11 +34734,11 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B53" s="114"/>
       <c r="C53" s="9" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D53" s="9"/>
       <c r="H53" s="9"/>
@@ -34897,11 +34746,11 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B54" s="114"/>
       <c r="C54" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D54" s="9"/>
       <c r="H54" s="9"/>
@@ -34909,11 +34758,11 @@
     </row>
     <row r="55" spans="1:10" s="98" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B55" s="114"/>
       <c r="C55" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D55" s="9"/>
       <c r="H55" s="9"/>
@@ -34921,11 +34770,11 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B56" s="114"/>
       <c r="C56" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D56" s="9"/>
       <c r="H56" s="9"/>
@@ -34933,11 +34782,11 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B57" s="114"/>
       <c r="C57" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D57" s="9"/>
       <c r="H57" s="9"/>
@@ -34945,11 +34794,11 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B58" s="114"/>
       <c r="C58" s="9" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D58" s="9"/>
       <c r="H58" s="9"/>
@@ -34957,11 +34806,11 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="114" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B59" s="114"/>
       <c r="C59" s="9" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D59" s="9"/>
       <c r="H59" s="9"/>
@@ -34969,11 +34818,11 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B60" s="114"/>
       <c r="C60" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D60" s="9"/>
       <c r="H60" s="9"/>
@@ -34981,11 +34830,11 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B61" s="114"/>
       <c r="C61" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D61" s="9"/>
       <c r="H61" s="9"/>
@@ -34993,7 +34842,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B62" s="114"/>
       <c r="C62" s="114"/>
@@ -35003,7 +34852,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B63" s="114"/>
       <c r="C63" s="114"/>
@@ -35014,7 +34863,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B64" s="114"/>
       <c r="C64" s="114"/>
@@ -35025,7 +34874,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B65" s="114"/>
       <c r="H65" s="9"/>
@@ -35034,7 +34883,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B66" s="114"/>
       <c r="H66" s="9"/>
@@ -35043,7 +34892,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B67" s="114"/>
       <c r="H67" s="9"/>
@@ -35052,7 +34901,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B68" s="114"/>
       <c r="H68" s="9"/>
@@ -35061,7 +34910,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B69" s="114"/>
       <c r="H69" s="9"/>
@@ -35070,7 +34919,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B70" s="114"/>
       <c r="H70" s="9"/>
@@ -35079,7 +34928,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B71" s="114"/>
       <c r="H71" s="9"/>
@@ -35088,7 +34937,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B72" s="114"/>
       <c r="H72" s="9"/>
@@ -35097,7 +34946,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B73" s="114"/>
       <c r="H73" s="9"/>
@@ -35106,7 +34955,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B74" s="117"/>
       <c r="H74" s="9"/>
@@ -35115,7 +34964,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B75" s="117"/>
       <c r="H75" s="9"/>
@@ -35124,7 +34973,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B76" s="9"/>
       <c r="H76" s="9"/>
@@ -35133,7 +34982,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B77" s="9"/>
       <c r="H77" s="9"/>
@@ -35142,7 +34991,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B78" s="9"/>
       <c r="H78" s="9"/>
@@ -35151,7 +35000,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B79" s="9"/>
       <c r="H79" s="9"/>
@@ -35160,7 +35009,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B80" s="9"/>
       <c r="H80" s="9"/>
@@ -35169,7 +35018,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B81" s="9"/>
       <c r="H81" s="9"/>
@@ -35178,7 +35027,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B82" s="9"/>
       <c r="H82" s="9"/>
@@ -35187,7 +35036,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B83" s="9"/>
       <c r="H83" s="9"/>
@@ -35196,7 +35045,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B84" s="9"/>
       <c r="H84" s="114"/>
@@ -35205,7 +35054,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B85" s="9"/>
       <c r="H85" s="9"/>
@@ -35214,7 +35063,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B86" s="9"/>
       <c r="H86" s="9"/>
@@ -35223,7 +35072,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B87" s="9"/>
       <c r="H87" s="9"/>
